--- a/DeteccionArritmiasTotal_10012021_2.xlsx
+++ b/DeteccionArritmiasTotal_10012021_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD6380E-29F7-4C4F-8133-98EE0394918C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7471606D-E122-46C1-B5C2-5D6AB5E81066}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DC38C8DA-41B3-43C3-BF23-719EF291CBDC}"/>
   </bookViews>
@@ -3746,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DD73AD8-1063-431A-A9FD-AFC048A5F530}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection sqref="A1:H98"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
